--- a/biology/Écologie/Comprehensive_Accounting_in_Respect_of_Ecology/Comprehensive_Accounting_in_Respect_of_Ecology.xlsx
+++ b/biology/Écologie/Comprehensive_Accounting_in_Respect_of_Ecology/Comprehensive_Accounting_in_Respect_of_Ecology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Comprehensive Accounting in Respect of Ecology (CARE) (anciennement "Comptabilité Adaptée au Renouvellement de l'Environnement") est un cadre conceptuel comptable, et plus largement une théorie socio-économique, décliné en une méthode comptable, reposant sur une prise en compte particulière des enjeux écologiques conjointement aux enjeux financiers. Le projet global CARE renvoie donc à ces trois niveaux de compréhension: théorie/modèle socio-économique et organisationnel, cadre conceptuel/modèle comptable et méthodologie (Description précise des axes du projet CARE).
-Il s'agit ainsi de faire évoluer la comptabilité (incluant les plans de comptes, tableaux de bord, bilans et comptes de résultats), l'analyse des performances, les modèles, ainsi que l'économie des organisations, pour y inscrire l'obligation de préserver chaque entité naturelle ou humaine (être humain), reconnue comme capitale - les capitaux extra-financiers au sens de CARE - et employée par les organisations, et cela, conjointement à l'obligation de préservation/protection du capital financier[1]. Ainsi, en conséquence, à titre d'exemple, selon CARE, une entreprise ne peut calculer son profit qu'une fois garanti le "remboursement" de sa dette écologique envers ses capitaux naturels et humains, comme elle le fait déjà pour ses capitaux financiers[2].
-CARE est donc une comptabilité intégrée, multi-capitaux. Néanmoins, le terme "capital" est employé par ce système comptable dans un sens spécifique, comptable et non économique[3],[4]. CARE constitue dès lors le seul exemple de cadre conceptuel comptable intégré doté de cette vision du capital pour les enjeux écologiques.
-CARE est développé scientifiquement par la Chaire Comptabilité Ecologique, qui fédère les projets de recherche associés. La communauté d'acteurs (professionnels, ONG, etc.) en lien avec CARE est quant à elle fédérée par l'association CERCES (Cercle des comptables environnementaux et sociaux), qui regroupe notamment les ressources concernant le développement de ce projet comptable[5] .
-Cette compréhension et conception de la comptabilité a été inspirée et impulsée par les travaux de Jacques Richard, professeur émérite à l'Université Paris-Dauphine[6],[7]. CARE a ensuite été cofondé avec Hervé Gbego et Alexandre Rambaud[8],[9].
-La communauté autour de CARE donne par ailleurs lieu à plusieurs projets rattachés[10],[11],[12].
+Il s'agit ainsi de faire évoluer la comptabilité (incluant les plans de comptes, tableaux de bord, bilans et comptes de résultats), l'analyse des performances, les modèles, ainsi que l'économie des organisations, pour y inscrire l'obligation de préserver chaque entité naturelle ou humaine (être humain), reconnue comme capitale - les capitaux extra-financiers au sens de CARE - et employée par les organisations, et cela, conjointement à l'obligation de préservation/protection du capital financier. Ainsi, en conséquence, à titre d'exemple, selon CARE, une entreprise ne peut calculer son profit qu'une fois garanti le "remboursement" de sa dette écologique envers ses capitaux naturels et humains, comme elle le fait déjà pour ses capitaux financiers.
+CARE est donc une comptabilité intégrée, multi-capitaux. Néanmoins, le terme "capital" est employé par ce système comptable dans un sens spécifique, comptable et non économique,. CARE constitue dès lors le seul exemple de cadre conceptuel comptable intégré doté de cette vision du capital pour les enjeux écologiques.
+CARE est développé scientifiquement par la Chaire Comptabilité Ecologique, qui fédère les projets de recherche associés. La communauté d'acteurs (professionnels, ONG, etc.) en lien avec CARE est quant à elle fédérée par l'association CERCES (Cercle des comptables environnementaux et sociaux), qui regroupe notamment les ressources concernant le développement de ce projet comptable .
+Cette compréhension et conception de la comptabilité a été inspirée et impulsée par les travaux de Jacques Richard, professeur émérite à l'Université Paris-Dauphine,. CARE a ensuite été cofondé avec Hervé Gbego et Alexandre Rambaud,.
+La communauté autour de CARE donne par ailleurs lieu à plusieurs projets rattachés.
 </t>
         </is>
       </c>
@@ -516,19 +528,21 @@
           <t>Structure du modèle CARE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CARE est introduit initialement dans l'ouvrage "Comptabilité et Développement Durable" et est théorisé dès 2015 (sous l'appellation CARE/TDL - TDL signifiant "Triple Depreciation Line", par opposition à l'approche en Triple Bottom Line)[13],[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CARE est introduit initialement dans l'ouvrage "Comptabilité et Développement Durable" et est théorisé dès 2015 (sous l'appellation CARE/TDL - TDL signifiant "Triple Depreciation Line", par opposition à l'approche en Triple Bottom Line),.
 La théorie sur laquelle repose CARE provient de plusieurs analyses scientifiques, que ce soit sur la structure de la comptabilité financière ou sur les modèles économiques et comptables couplant enjeux financiers et non-financiers, en s’appuyant sur les modélisations bio-économiques et les sciences écologiques.
-Par ailleurs, le terme "écologie" utilisé dans l'acronyme de CARE correspond à son sens "premier", qu’on peut définir ainsi : "la science globale des relations des organismes [incluant humains et non-humains] avec le monde extérieur environnant, dans lequel nous incluons au sens large toutes les conditions d’existence [et de cohabitations]"[15]. Cela implique donc un couplage entre social et naturel.
+Par ailleurs, le terme "écologie" utilisé dans l'acronyme de CARE correspond à son sens "premier", qu’on peut définir ainsi : "la science globale des relations des organismes [incluant humains et non-humains] avec le monde extérieur environnant, dans lequel nous incluons au sens large toutes les conditions d’existence [et de cohabitations]". Cela implique donc un couplage entre social et naturel.
 Trois observations sont ainsi à l'origine de CARE:
-La notion de "capital" est, historiquement et en comptabilité "classique" (comptabilité dite en "coûts" au cœur par exemple des normes comptables d'Europe Continentale), une dette et non un ensemble d’actifs, contrairement à la vision du capital en économie et en comptabilité dite en "valeurs" (base des normes comptables IFRS)[16]. La comptabilité "classique" est ainsi conceptuellement fondée sur le suivi des avances financières faites à l’organisation (par les actionnaires, les banques, les fournisseurs, etc.) au travers de leurs emplois et consommations dans le cycle d'exploitation de l’organisation ainsi que sur la garantie de remboursement, à terme, de ces avances: ces dernières constituent l'ensemble du capital financier de l’organisation, qui représente donc l'ensemble des dettes de l’organisation[3],[17].
-Les comptabilités en "valeurs" (de marché) favorisent les actionnaires/propriétaires au détriment des autres parties prenantes[18].
-Les modèles comptables basés sur une approche néoclassique, fondée sur la "valeur" créée par la nature et les êtres humains (englobant les approches par services écosystémiques, bénéfices rendus par la nature et les êtres humains, internalisation des externalités, soutenabilité comme création de valeur, capital immatériel, etc.), sont, dans de nombreuses situations et selon plusieurs modélisations incompatibles avec des enjeux de préservation écologique sur base scientifique et collectivement acceptée[19],[20],[21],[22],[23].
-En conséquence, CARE a été défini comme un cadre conceptuel comptable, rejetant les approches par la "valeur" (et donc les notions d'externalités, de "juste valeur", de capital au sens économique du terme, etc.) et explorant scientifiquement la convergence entre comptabilité "classique" et enjeux de préservation écologiques, afin de redéfinir l'architecture interne des organisations pour tenter de l'aligner sur les enjeux écologiques[4]. CARE est donc une sorte de langage qui permet de conceptualiser une pensée intégrée au niveau des organisations.
+La notion de "capital" est, historiquement et en comptabilité "classique" (comptabilité dite en "coûts" au cœur par exemple des normes comptables d'Europe Continentale), une dette et non un ensemble d’actifs, contrairement à la vision du capital en économie et en comptabilité dite en "valeurs" (base des normes comptables IFRS). La comptabilité "classique" est ainsi conceptuellement fondée sur le suivi des avances financières faites à l’organisation (par les actionnaires, les banques, les fournisseurs, etc.) au travers de leurs emplois et consommations dans le cycle d'exploitation de l’organisation ainsi que sur la garantie de remboursement, à terme, de ces avances: ces dernières constituent l'ensemble du capital financier de l’organisation, qui représente donc l'ensemble des dettes de l’organisation,.
+Les comptabilités en "valeurs" (de marché) favorisent les actionnaires/propriétaires au détriment des autres parties prenantes.
+Les modèles comptables basés sur une approche néoclassique, fondée sur la "valeur" créée par la nature et les êtres humains (englobant les approches par services écosystémiques, bénéfices rendus par la nature et les êtres humains, internalisation des externalités, soutenabilité comme création de valeur, capital immatériel, etc.), sont, dans de nombreuses situations et selon plusieurs modélisations incompatibles avec des enjeux de préservation écologique sur base scientifique et collectivement acceptée.
+En conséquence, CARE a été défini comme un cadre conceptuel comptable, rejetant les approches par la "valeur" (et donc les notions d'externalités, de "juste valeur", de capital au sens économique du terme, etc.) et explorant scientifiquement la convergence entre comptabilité "classique" et enjeux de préservation écologiques, afin de redéfinir l'architecture interne des organisations pour tenter de l'aligner sur les enjeux écologiques. CARE est donc une sorte de langage qui permet de conceptualiser une pensée intégrée au niveau des organisations.
 Concrètement, CARE étend déjà la définition du capital financier comme avance/dette aux enjeux non financiers.
 Définition des capitaux au sens de CARE: un capital est une "entité" (matérielle ou non, humaine ou non), employée et consommée (par l’organisation) dans son modèle organisationnel, dont l’existence est indépendante de l’activité de l’organisation (notamment de son utilité/productivité), et reconnue comme devant être préservée. Un capital est une "entité capitale", source de préoccupations.
-CARE repose ensuite sur une extension systématisée du suivi des emplois/consommations, dans l’activité de l’organisation, de ces capitaux ainsi que de la garantie de leur "remboursement" (préservation) à termes, impliquant la mise en place de comptabilités biophysiques, de tableaux de bords, etc. adaptés. CARE s’inscrit dans la soutenabilité forte écologique[24]. Ainsi chaque entité "capitale", humaine ou non (biodiversité, climat, forêt donnée, employé-e, etc.), doit être préservée dans son intégrité, une à une.
+CARE repose ensuite sur une extension systématisée du suivi des emplois/consommations, dans l’activité de l’organisation, de ces capitaux ainsi que de la garantie de leur "remboursement" (préservation) à termes, impliquant la mise en place de comptabilités biophysiques, de tableaux de bords, etc. adaptés. CARE s’inscrit dans la soutenabilité forte écologique. Ainsi chaque entité "capitale", humaine ou non (biodiversité, climat, forêt donnée, employé-e, etc.), doit être préservée dans son intégrité, une à une.
 CARE conduit à la restructuration du modèle organisationnel: pour exploiter les entités capitales et ainsi créer de la valeur, CARE amène à s’interroger dès l’amont à la manière de préserver les capitaux utilisés pour cette création de valeur. À côté de la fonction organisationnelle "d’exploitation" est ainsi mise en évidence une fonction "de préservation".
 Dans ces conditions, CARE est aussi conçu et développé (notamment au niveau de la recherche) comme une théorie socio-économique particulière, caractérisée:
 par une redéfinition de l’économie à travers ses systèmes comptables (organisationnels, nationaux, écosystémiques, etc.) – renouant ainsi avec une tradition de l’économie comme "mode d’administration d’un ‘foyer’ commun" (étymologie du terme "économie") par le biais d’outils de gestion qualitatifs et quantitatifs adaptés (les systèmes comptables);
@@ -563,13 +577,15 @@
           <t>Méthode CARE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Opérationnellement, CARE est également une méthodologie, logiquement déduite de ce cadre conceptuel, divisée en 8 phases[25]. Cette méthodologie évolue dans le temps pour s’affiner (Version actuelle: V2) tout en restant cadrée par le cadre conceptuel.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opérationnellement, CARE est également une méthodologie, logiquement déduite de ce cadre conceptuel, divisée en 8 phases. Cette méthodologie évolue dans le temps pour s’affiner (Version actuelle: V2) tout en restant cadrée par le cadre conceptuel.
 Méthodologiquement, CARE restructure les tableaux de bord, les indicateurs, le modèle d’affaires, la compréhension de la création de valeur, du chiffre d’affaires et de la chaîne de valeur, le bilan/compte de résultat et les performances de l’organisation, articulant des comptabilités biophysiques et une comptabilité intégrée finale, connectée à la comptabilité financière de l’organisation.
-Les capitaux sont appréhendés par la définition de bons états écologiques, de niveaux de travail décents, de préservation de l’intégrité des êtres humains employés, etc. sur base scientifique et collectivement acceptée[26].
+Les capitaux sont appréhendés par la définition de bons états écologiques, de niveaux de travail décents, de préservation de l’intégrité des êtres humains employés, etc. sur base scientifique et collectivement acceptée.
 Le but de la méthode CARE est d'apporter un gain informationnel et qualitatif concret sur les performances de l’organisation.
-Actuellement, une trentaine de mises en œuvre ont été menées, principalement sous la forme de projets de recherche et de missions[27]. Les modalités de mise en œuvre de CARE, ainsi que leur déontologie, sont détaillées sur le site du CERCES[27].
+Actuellement, une trentaine de mises en œuvre ont été menées, principalement sous la forme de projets de recherche et de missions. Les modalités de mise en œuvre de CARE, ainsi que leur déontologie, sont détaillées sur le site du CERCES.
 </t>
         </is>
       </c>
